--- a/ResultadoEleicoesDistritos/GUARDA_MÊDA.xlsx
+++ b/ResultadoEleicoesDistritos/GUARDA_MÊDA.xlsx
@@ -597,64 +597,64 @@
         <v>1495</v>
       </c>
       <c r="H2" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I2" t="n">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="J2" t="n">
-        <v>602</v>
+        <v>646</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L2" t="n">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="M2" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N2" t="n">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2</v>
+      </c>
+      <c r="R2" t="n">
+        <v>6</v>
+      </c>
+      <c r="S2" t="n">
+        <v>79</v>
+      </c>
+      <c r="T2" t="n">
+        <v>102</v>
+      </c>
+      <c r="U2" t="n">
+        <v>7</v>
+      </c>
+      <c r="V2" t="n">
+        <v>956</v>
+      </c>
+      <c r="W2" t="n">
         <v>1</v>
       </c>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>9</v>
-      </c>
-      <c r="S2" t="n">
-        <v>77</v>
-      </c>
-      <c r="T2" t="n">
-        <v>128</v>
-      </c>
-      <c r="U2" t="n">
-        <v>14</v>
-      </c>
-      <c r="V2" t="n">
-        <v>955</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
       <c r="X2" t="n">
-        <v>899</v>
+        <v>971</v>
       </c>
       <c r="Y2" t="n">
         <v>1</v>
       </c>
       <c r="Z2" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AA2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
